--- a/Месиво/Узбеки с семьёй.xlsx
+++ b/Месиво/Узбеки с семьёй.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G29"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +385,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I33" si="0">SUM(A2:H2)</f>
+        <f t="shared" ref="I2:I32" si="0">SUM(A2:H2)</f>
         <v>1</v>
       </c>
     </row>
@@ -677,6 +677,18 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
@@ -691,10 +703,25 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.1</v>
+      </c>
+      <c r="G28">
+        <v>0.1</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -703,135 +730,125 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F29">
         <v>0.1</v>
       </c>
-      <c r="G29">
-        <v>0.1</v>
-      </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.8200000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="B30">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C30">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D30">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0.3</v>
       </c>
       <c r="F30">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>1.8200000000000003</v>
+        <v>1.5200000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>0.02</v>
-      </c>
-      <c r="C31">
-        <v>0.4</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0.3</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>1.5200000000000002</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
         <v>2</v>
       </c>
-      <c r="B32">
-        <v>8</v>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="B33">
+        <v>1.9</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>40</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0.7</v>
-      </c>
-      <c r="B34">
-        <v>1.9</v>
-      </c>
-      <c r="C34">
-        <v>12</v>
-      </c>
-      <c r="D34">
-        <v>17</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>4</v>
       </c>
       <c r="C35">
         <v>20</v>
@@ -839,38 +856,21 @@
       <c r="D35">
         <v>40</v>
       </c>
-      <c r="E35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>0.2</v>
       </c>
     </row>
